--- a/output.xlsx
+++ b/output.xlsx
@@ -852,31 +852,31 @@
         <v>3607892</v>
       </c>
       <c r="H8" t="n">
-        <v>179267</v>
+        <v>179317</v>
       </c>
       <c r="I8" t="n">
         <v>25.97</v>
       </c>
       <c r="J8" t="n">
-        <v>4656339</v>
+        <v>4657659</v>
       </c>
       <c r="K8" t="n">
-        <v>320923</v>
+        <v>320973</v>
       </c>
       <c r="L8" t="n">
         <v>25.75</v>
       </c>
       <c r="M8" t="n">
-        <v>8264231</v>
+        <v>8265551</v>
       </c>
       <c r="N8" t="n">
-        <v>314496</v>
+        <v>234395</v>
       </c>
       <c r="O8" t="n">
-        <v>23.97</v>
+        <v>29.73</v>
       </c>
       <c r="P8" t="n">
-        <v>7538984</v>
+        <v>6967932</v>
       </c>
     </row>
     <row r="9">
@@ -1008,31 +1008,31 @@
         <v>5766237</v>
       </c>
       <c r="H11" t="n">
-        <v>312777</v>
+        <v>312827</v>
       </c>
       <c r="I11" t="n">
         <v>21.59</v>
       </c>
       <c r="J11" t="n">
-        <v>6753285</v>
+        <v>6754605</v>
       </c>
       <c r="K11" t="n">
-        <v>600396</v>
+        <v>600446</v>
       </c>
       <c r="L11" t="n">
         <v>20.85</v>
       </c>
       <c r="M11" t="n">
-        <v>12519522</v>
+        <v>12520842</v>
       </c>
       <c r="N11" t="n">
-        <v>314496</v>
+        <v>234395</v>
       </c>
       <c r="O11" t="n">
-        <v>23.97</v>
+        <v>29.73</v>
       </c>
       <c r="P11" t="n">
-        <v>7538984</v>
+        <v>6967932</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,137 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Division</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Last Volume</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Last Price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Last Value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>This Volume</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Price</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>This Value</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Forecast Volume</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Forecast Price</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Forecast Value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Forecast Full Volume</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Forecast Full Price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Forecast Full Value</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Budget Volume</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Budget Price</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Budget Value</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sales + forecast + Budget (sales manager: Emanuele, customer: Durst Group AG (AT)), date:20240724_160101</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Digital - (DyeSub)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17796</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266133</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6929</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="G2" t="n">
-        <v>101908</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7818</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="J2" t="n">
-        <v>129224</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14747</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="M2" t="n">
-        <v>231132</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Last Volume</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Last Price</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Last Value</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>This Volume</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>This Price</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>This Value</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Forecast Volume</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Forecast Price</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Forecast Value</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Forecast Full Volume</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Forecast Full Price</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Forecast Full Value</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Budget Volume</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Budget Price</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Budget Value</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -574,40 +529,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8305</v>
+        <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-15.31</v>
+        <v>110381.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-127116</v>
+        <v>-220763</v>
       </c>
       <c r="E3" t="n">
-        <v>6186</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15.05</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93090</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.61</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4906</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6424</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97996</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,44 +577,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Digital - (Solvent)-SWF</t>
+          <t>Digital - (Spare Parts)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249444</v>
+        <v>453</v>
       </c>
       <c r="C4" t="n">
-        <v>10.65</v>
+        <v>11.56</v>
       </c>
       <c r="D4" t="n">
-        <v>2656608</v>
+        <v>5237</v>
       </c>
       <c r="E4" t="n">
-        <v>93987</v>
+        <v>220</v>
       </c>
       <c r="F4" t="n">
-        <v>10.61</v>
+        <v>19.2</v>
       </c>
       <c r="G4" t="n">
-        <v>997332</v>
+        <v>4225</v>
       </c>
       <c r="H4" t="n">
-        <v>86202</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.49</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>904262</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>180189</v>
+        <v>220</v>
       </c>
       <c r="L4" t="n">
-        <v>10.55</v>
+        <v>19.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1901594</v>
+        <v>4225</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -674,365 +629,117 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Digital - (Solvent)-WF</t>
+          <t>Digital - (UV)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34269</v>
+        <v>122474</v>
       </c>
       <c r="C5" t="n">
-        <v>25.47</v>
+        <v>23.96</v>
       </c>
       <c r="D5" t="n">
-        <v>872985</v>
+        <v>2933950</v>
       </c>
       <c r="E5" t="n">
-        <v>16695</v>
+        <v>66543</v>
       </c>
       <c r="F5" t="n">
-        <v>24.75</v>
+        <v>23.56</v>
       </c>
       <c r="G5" t="n">
-        <v>413186</v>
-      </c>
-      <c r="H5" t="n">
-        <v>16590</v>
+        <v>1567884</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>83148.00</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>25.33</v>
+        <v>23.22</v>
       </c>
       <c r="J5" t="n">
-        <v>420200</v>
-      </c>
-      <c r="K5" t="n">
-        <v>33285</v>
+        <v>1930772</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>149691.00</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>25.04</v>
+        <v>23.37</v>
       </c>
       <c r="M5" t="n">
-        <v>833386</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
+        <v>3498656</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>226500.00</t>
+        </is>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5390750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Digital - (Spare Parts)</t>
+          <t>ZZ Total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10231</v>
+        <v>122925</v>
       </c>
       <c r="C6" t="n">
-        <v>53.77</v>
+        <v>22.11</v>
       </c>
       <c r="D6" t="n">
-        <v>550113</v>
+        <v>2718424</v>
       </c>
       <c r="E6" t="n">
-        <v>15027</v>
+        <v>66763</v>
       </c>
       <c r="F6" t="n">
-        <v>21.88</v>
+        <v>23.55</v>
       </c>
       <c r="G6" t="n">
-        <v>328738</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1320</v>
+        <v>1572109</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>83148.00</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>9.77</v>
+        <v>23.22</v>
       </c>
       <c r="J6" t="n">
-        <v>12900</v>
-      </c>
-      <c r="K6" t="n">
-        <v>16347</v>
+        <v>1930772</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>149911.00</t>
+        </is>
       </c>
       <c r="L6" t="n">
-        <v>20.9</v>
+        <v>23.37</v>
       </c>
       <c r="M6" t="n">
-        <v>341638</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
+        <v>3502881</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>226500.00</t>
+        </is>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Digital - (Toner) Japan</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7420</v>
-      </c>
-      <c r="C7" t="n">
-        <v>38.89</v>
-      </c>
-      <c r="D7" t="n">
-        <v>288568</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F7" t="n">
-        <v>38.13</v>
-      </c>
-      <c r="G7" t="n">
-        <v>66340</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4320</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>165180</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6060</v>
-      </c>
-      <c r="L7" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>231520</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Digital - (UV)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>260671</v>
-      </c>
-      <c r="C8" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6969185</v>
-      </c>
-      <c r="E8" t="n">
-        <v>141656</v>
-      </c>
-      <c r="F8" t="n">
-        <v>25.47</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3607892</v>
-      </c>
-      <c r="H8" t="n">
-        <v>179317</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25.97</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4657659</v>
-      </c>
-      <c r="K8" t="n">
-        <v>320973</v>
-      </c>
-      <c r="L8" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>8265551</v>
-      </c>
-      <c r="N8" t="n">
-        <v>234395</v>
-      </c>
-      <c r="O8" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6967932</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Digital - (Water) Japan</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11470</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>276837</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3368</v>
-      </c>
-      <c r="F9" t="n">
-        <v>34.93</v>
-      </c>
-      <c r="G9" t="n">
-        <v>117650</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17022</v>
-      </c>
-      <c r="I9" t="n">
-        <v>27.04</v>
-      </c>
-      <c r="J9" t="n">
-        <v>460274</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20390</v>
-      </c>
-      <c r="L9" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="M9" t="n">
-        <v>577924</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Z missing division</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2031</v>
-      </c>
-      <c r="F10" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="G10" t="n">
-        <v>40101</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2031</v>
-      </c>
-      <c r="L10" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="M10" t="n">
-        <v>40101</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ZZ Total</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>599606</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11753313</v>
-      </c>
-      <c r="E11" t="n">
-        <v>287619</v>
-      </c>
-      <c r="F11" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5766237</v>
-      </c>
-      <c r="H11" t="n">
-        <v>312827</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6754605</v>
-      </c>
-      <c r="K11" t="n">
-        <v>600446</v>
-      </c>
-      <c r="L11" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="M11" t="n">
-        <v>12520842</v>
-      </c>
-      <c r="N11" t="n">
-        <v>234395</v>
-      </c>
-      <c r="O11" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6967932</v>
+        <v>5390750</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sales + forecast + Budget (sales manager: Emanuele, customer: Durst Group AG (AT)), date:20240724_160101</t>
+          <t>Sales + forecast + Budget (sales manager: Matej, customer: all), date:20240726_194650</t>
         </is>
       </c>
     </row>
@@ -525,44 +525,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Digital - (Other)</t>
+          <t>Digital - (DyeSub)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>9054</v>
       </c>
       <c r="C3" t="n">
-        <v>110381.5</v>
+        <v>14.85</v>
       </c>
       <c r="D3" t="n">
-        <v>-220763</v>
+        <v>134455</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6681</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>14.45</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>96546</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1212.00</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.33</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+        <v>28276</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>7893.00</t>
+        </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.81</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>124822</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -577,26 +581,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Digital - (Spare Parts)</t>
+          <t>Digital - (Other)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453</v>
+        <v>4805</v>
       </c>
       <c r="C4" t="n">
-        <v>11.56</v>
+        <v>6.74</v>
       </c>
       <c r="D4" t="n">
-        <v>5237</v>
+        <v>32377</v>
       </c>
       <c r="E4" t="n">
-        <v>220</v>
+        <v>4166</v>
       </c>
       <c r="F4" t="n">
-        <v>19.2</v>
+        <v>13.85</v>
       </c>
       <c r="G4" t="n">
-        <v>4225</v>
+        <v>57702</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -608,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>220</v>
+        <v>4166</v>
       </c>
       <c r="L4" t="n">
-        <v>19.2</v>
+        <v>13.85</v>
       </c>
       <c r="M4" t="n">
-        <v>4225</v>
+        <v>57702</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -629,117 +633,381 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Digital - (UV)</t>
+          <t>Digital - (Solvent)-SWF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122474</v>
+        <v>191225</v>
       </c>
       <c r="C5" t="n">
-        <v>23.96</v>
+        <v>10.57</v>
       </c>
       <c r="D5" t="n">
-        <v>2933950</v>
+        <v>2021850</v>
       </c>
       <c r="E5" t="n">
-        <v>66543</v>
+        <v>56936</v>
       </c>
       <c r="F5" t="n">
-        <v>23.56</v>
+        <v>10.36</v>
       </c>
       <c r="G5" t="n">
-        <v>1567884</v>
+        <v>590014</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>83148.00</t>
+          <t>63942.00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>23.22</v>
+        <v>10.38</v>
       </c>
       <c r="J5" t="n">
-        <v>1930772</v>
+        <v>663741</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>149691.00</t>
+          <t>120878.00</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>23.37</v>
+        <v>10.37</v>
       </c>
       <c r="M5" t="n">
-        <v>3498656</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>226500.00</t>
-        </is>
+        <v>1253755</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5390750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Digital - (Solvent)-WF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16240</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>394781</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9327</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="G6" t="n">
+        <v>216686</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9588.00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>234632</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18915.00</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>451318</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Digital - (Spare Parts)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2299</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>79301</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36562</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1046</v>
+      </c>
+      <c r="L7" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>36562</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Digital - (UV)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77201</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2163541</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29316</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>815711</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>53412.00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1565704</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>82728.00</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2381415</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Digital - (Water) Japan</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>700</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Z missing division</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>225</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7039</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>225</v>
+      </c>
+      <c r="L10" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7039</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>ZZ Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>122925</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2718424</v>
-      </c>
-      <c r="E6" t="n">
-        <v>66763</v>
-      </c>
-      <c r="F6" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1572109</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>83148.00</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1930772</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>149911.00</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3502881</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>226500.00</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5390750</v>
+      <c r="B11" t="n">
+        <v>300844</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4827005</v>
+      </c>
+      <c r="E11" t="n">
+        <v>107705</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1820260</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>128154.00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2492353</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>235859.00</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4312613</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
